--- a/data/trans_camb/P43C-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Clase-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 14,57</t>
+          <t>1,43; 14,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 11,84</t>
+          <t>-1,44; 11,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 7,51</t>
+          <t>-5,33; 8,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 14,57</t>
+          <t>1,43; 14,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 11,84</t>
+          <t>-1,44; 11,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 7,51</t>
+          <t>-5,33; 8,17</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 20,81</t>
+          <t>1,85; 20,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 17,14</t>
+          <t>-1,86; 16,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 10,71</t>
+          <t>-7,04; 11,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 20,81</t>
+          <t>1,85; 20,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 17,14</t>
+          <t>-1,86; 16,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 10,71</t>
+          <t>-7,04; 11,68</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 20,24</t>
+          <t>7,37; 20,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 19,39</t>
+          <t>7,57; 19,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 14,63</t>
+          <t>1,54; 14,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 20,24</t>
+          <t>7,37; 20,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 19,39</t>
+          <t>7,57; 19,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 14,63</t>
+          <t>1,54; 14,56</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,75; 31,65</t>
+          <t>10,72; 31,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 29,96</t>
+          <t>10,82; 31,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 22,98</t>
+          <t>2,13; 22,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,75; 31,65</t>
+          <t>10,72; 31,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 29,96</t>
+          <t>10,82; 31,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 22,98</t>
+          <t>2,13; 22,92</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 14,15</t>
+          <t>-5,45; 12,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 18,44</t>
+          <t>-2,88; 17,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 7,46</t>
+          <t>-12,42; 7,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 14,15</t>
+          <t>-5,45; 12,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 18,44</t>
+          <t>-2,88; 17,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 7,46</t>
+          <t>-12,42; 7,63</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 23,32</t>
+          <t>-7,89; 21,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 30,79</t>
+          <t>-4,08; 28,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 12,62</t>
+          <t>-17,8; 13,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 23,32</t>
+          <t>-7,89; 21,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 30,79</t>
+          <t>-4,08; 28,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 12,62</t>
+          <t>-17,8; 13,0</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,24; 20,82</t>
+          <t>10,65; 20,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,2; 18,26</t>
+          <t>8,33; 18,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 9,9</t>
+          <t>-35,47; 9,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,24; 20,82</t>
+          <t>10,65; 20,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,2; 18,26</t>
+          <t>8,33; 18,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 9,9</t>
+          <t>-35,47; 9,96</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18,65; 38,99</t>
+          <t>18,22; 38,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,65; 33,81</t>
+          <t>14,05; 34,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,01; 17,79</t>
+          <t>-62,5; 18,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,65; 38,99</t>
+          <t>18,22; 38,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,65; 33,81</t>
+          <t>14,05; 34,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,01; 17,79</t>
+          <t>-62,5; 18,04</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,73; 13,75</t>
+          <t>1,84; 13,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 12,21</t>
+          <t>0,46; 11,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 17,74</t>
+          <t>-3,77; 17,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,73; 13,75</t>
+          <t>1,84; 13,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 12,21</t>
+          <t>0,46; 11,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 17,74</t>
+          <t>-3,77; 17,52</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,66; 26,25</t>
+          <t>2,95; 26,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>1,41; 23,68</t>
+          <t>0,91; 22,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 34,25</t>
+          <t>-6,97; 32,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,66; 26,25</t>
+          <t>2,95; 26,3</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,41; 23,68</t>
+          <t>0,91; 22,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 34,25</t>
+          <t>-6,97; 32,21</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,57; 13,5</t>
+          <t>5,28; 13,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,0</t>
+          <t>3,21; 11,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 6,9</t>
+          <t>-2,18; 7,05</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,57; 13,5</t>
+          <t>5,28; 13,67</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,0</t>
+          <t>3,21; 11,55</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 6,9</t>
+          <t>-2,18; 7,05</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>13,09; 35,14</t>
+          <t>12,76; 34,96</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,74; 30,76</t>
+          <t>7,3; 29,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 17,89</t>
+          <t>-5,12; 18,2</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>13,09; 35,14</t>
+          <t>12,76; 34,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>8,74; 30,76</t>
+          <t>7,3; 29,57</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 17,89</t>
+          <t>-5,12; 18,2</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>8,74; 13,56</t>
+          <t>8,98; 13,43</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,7; 12,45</t>
+          <t>7,96; 12,74</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 7,88</t>
+          <t>-9,51; 8,32</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,74; 13,56</t>
+          <t>8,98; 13,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>7,7; 12,45</t>
+          <t>7,96; 12,74</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 7,88</t>
+          <t>-9,51; 8,32</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>15,9; 25,86</t>
+          <t>16,5; 25,89</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>13,88; 23,74</t>
+          <t>14,46; 24,27</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 14,61</t>
+          <t>-17,61; 15,62</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>15,9; 25,86</t>
+          <t>16,5; 25,89</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>13,88; 23,74</t>
+          <t>14,46; 24,27</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 14,61</t>
+          <t>-17,61; 15,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P43C-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
